--- a/web/WBTBSsystem/system/downloads/testOut.xlsx
+++ b/web/WBTBSsystem/system/downloads/testOut.xlsx
@@ -482,11 +482,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NN003</t>
+          <t>CN0006</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -507,8 +507,7 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">NB001
-NB002
+          <t xml:space="preserve">NB002
 </t>
         </is>
       </c>

--- a/web/WBTBSsystem/system/downloads/testOut.xlsx
+++ b/web/WBTBSsystem/system/downloads/testOut.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,32 +486,100 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CN0006</t>
+          <t>CN0004</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>OUTBOUND</t>
+          <t>INBOUND</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" s="2" t="n">
+        <v>45376.14305555556</v>
+      </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">NB002
+          <t xml:space="preserve">NB001
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>118</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CN0010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" s="2" t="n">
+        <v>45376.14305555556</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB001
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>111</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CN0005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB001
 </t>
         </is>
       </c>

--- a/web/WBTBSsystem/system/downloads/testOut.xlsx
+++ b/web/WBTBSsystem/system/downloads/testOut.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,11 +486,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CN0004</t>
+          <t>CN0010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -503,14 +503,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" s="2" t="n">
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" s="2" t="n">
         <v>45376.14305555556</v>
       </c>
-      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
           <t xml:space="preserve">NB001
@@ -520,45 +520,44 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CN0010</t>
+          <t>CN0001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>INBOUND</t>
+          <t>OUTBOUND</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" s="2" t="n">
-        <v>45376.14305555556</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
           <t xml:space="preserve">NB001
+NB005
 </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CN0005</t>
+          <t>CN0020</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -567,7 +566,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -579,7 +578,537 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
+          <t xml:space="preserve">NB005
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>119</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>JP0001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB007
+NB008
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>120</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>JP0002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB009
+NB010
+NB011
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>111</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CN0005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB011
+NB012
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>112</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CN0006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>OUTBOUND</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB015
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>113</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MY0001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB016
+NB017
+NB018
+NB020
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>114</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>US0001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
           <t xml:space="preserve">NB001
+NB002
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>173</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>JP0006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB003
+NB004
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>174</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>RU0002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB005
+NB008
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>175</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>RU0003</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB009
+NB012
+NB016
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>176</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>RU0004</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB016
+NB017
+NB020
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>177</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>RU0005</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB001
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>178</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>RU0006</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB002
+NB003
+NB004
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>179</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>RU0007</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>OUTBOUND</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>9</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB005
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>180</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MY0013</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB006
+NB007
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>181</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MY0014</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB010
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>182</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MY0015</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB011
+NB012
 </t>
         </is>
       </c>

--- a/web/WBTBSsystem/system/downloads/testOut.xlsx
+++ b/web/WBTBSsystem/system/downloads/testOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,3057 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>726</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CN0007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB001
+NB002
+NB003
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>727</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CN0008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB004
+NB005
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>728</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CN0009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB007
+NB008
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>724</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MY0001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB009
+NB010
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>725</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>US0001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>8</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB011
+NB012
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>729</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CN0010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB014
+NB015
+NB016
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>730</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>JP0001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB017
+NB018
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>731</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>JP0002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB019
+NB020
+NB021
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>732</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>RU0001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>OUTBOUND</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB022
+NB024
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>733</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>KR0001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB025
+NB026
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>734</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>KR0002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>7</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB027
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>735</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CN0011</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>8</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB028
+NB029
+NB031
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>736</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CN0012</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>9</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB032
+NB033
+NB034
+NB035
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>737</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CN0013</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>10</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB036
+NB037
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>738</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CN0014</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB001
+NB038
+NB039
+NB040
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>741</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MY0002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB002
+NB003
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>742</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MY0003</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB004
+NB005
+NB007
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>743</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CN0017</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>6</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB008
+NB009
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>744</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CN0018</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>7</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB010
+NB011
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>739</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CN0015</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB012
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>740</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CN0016</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>OUTBOUND</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB014
+NB015
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>745</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CN0019</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>8</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB016
+NB017
+NB018
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>746</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CN0020</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>9</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB019
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>747</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CN0021</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>OUTBOUND</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>10</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB020
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>748</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CN0022</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB021
+NB022
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>749</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CN0023</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB024
+NB025
+NB026
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>750</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CN0024</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB027
+NB028
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>751</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CN0025</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB029
+NB031
+NB032
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>752</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CN0026</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB033
+NB034
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>753</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>JP0003</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>OUTBOUND</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>6</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB035
+NB036
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>754</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>MY0004</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>7</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB037
+NB038
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>755</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MY0005</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>8</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB039
+NB040
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>756</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MY0006</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>9</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB001
+NB002
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>757</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MY0007</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>10</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB003
+NB004
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>760</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>GR0001</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB005
+NB007
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>761</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>DE0001</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>4</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB008
+NB009
+NB010
+NB011
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>762</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CN0029</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>5</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB012
+NB014
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>758</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CN0027</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB015
+NB016
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>759</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CN0028</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>OUTBOUND</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>2</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB017
+NB018
+NB019
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>764</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CN0031</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>7</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB020
+NB021
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>765</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CN0032</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>8</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB022
+NB024
+NB025
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>766</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CN0033</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>9</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB026
+NB027
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>767</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CN0034</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>10</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB028
+NB029
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>768</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CN0035</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB029
+NB031
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>769</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>CN0036</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB032
+NB033
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>770</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CN0037</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>3</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB034
+NB035
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>771</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CN0001</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>OUTBOUND</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>4</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB036
+NB037
+NB038
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>772</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>CN0038</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>5</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB039
+NB040
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>773</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>CN0039</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>6</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB001
+NB002
+NB003
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>776</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CN0042</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>9</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB004
+NB005
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>777</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>MY0008</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>OUTBOUND</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>10</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB007
+NB008
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>774</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>CN0040</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>7</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB009
+NB010
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>775</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>CN0041</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>8</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB011
+NB012
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>778</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>MY0009</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB014
+NB015
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>779</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>MY0010</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB016
+NB017
+NB018
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>780</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>MY0011</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>3</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB019
+NB020
+NB021
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>781</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>MY0012</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>4</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB022
+NB024
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>782</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>JP0004</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>5</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB025
+NB026
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>783</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>JP0005</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>OUTBOUND</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>6</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB027
+NB028
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>784</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>JP0006</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>7</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB029
+NB031
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>785</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>RU0002</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>8</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB032
+NB033
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>786</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>RU0003</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>9</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB034
+NB035
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>787</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>RU0004</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>10</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB036
+NB037
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>788</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>RU0005</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB038
+NB039
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>791</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>MY0013</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>4</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB001
+NB040
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>792</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>MY0014</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>5</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB002
+NB003
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>793</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>MY0015</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>6</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB004
+NB005
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>794</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>CN0043</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>7</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB007
+NB008
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>789</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>RU0006</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>2</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB009
+NB010
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>790</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>RU0007</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>OUTBOUND</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>3</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB011
+NB012
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>795</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>CN0044</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>8</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB014
+NB015
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>796</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>CN0045</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>9</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB016
+NB017
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>797</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>CN0046</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>10</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB018
+NB019
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>798</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>CN0047</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>1</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB020
+NB021
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>799</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>CN0048</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>2</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB022
+NB024
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>800</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>CN0049</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>3</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB025
+NB026
+NB027
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>801</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>CN0050</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>OUTBOUND</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>4</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB028
+NB029
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>802</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>CN0051</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>5</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB031
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>803</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>CN0052</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>6</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB032
+NB033
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>804</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>CN0053</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>7</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB034
+NB035
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>805</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>CN0054</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>8</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB036
+NB037
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>806</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>CN0055</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>9</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB038
+NB039
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>807</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>CN0056</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>10</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB040
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>810</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>MY0017</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>3</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB001
+NB002
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>811</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>MY0018</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>OUTBOUND</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>4</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB003
+NB004
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>812</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>MY0019</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>5</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB005
+NB007
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>813</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>MY0020</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>6</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB008
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>808</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>CN0057</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB009
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>809</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>MY0016</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>2</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB010
+NB011
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>814</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>JP0007</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>7</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB012
+NB014
+NB015
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>815</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>US0002</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>8</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB016
+NB017
+NB018
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>816</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>US0003</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>INBOUND</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>9</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NB019
+NB020
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
